--- a/p5_sec_outcomes_kyle.xlsx
+++ b/p5_sec_outcomes_kyle.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="p5_sec_outcomes_kyle" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -771,8 +771,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="548453648"/>
-        <c:axId val="548461808"/>
+        <c:axId val="-537310496"/>
+        <c:axId val="-537308864"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -960,11 +960,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="548453648"/>
-        <c:axId val="548461808"/>
+        <c:axId val="-537310496"/>
+        <c:axId val="-537308864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="548453648"/>
+        <c:axId val="-537310496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1007,7 +1007,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548461808"/>
+        <c:crossAx val="-537308864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1016,7 +1016,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="548461808"/>
+        <c:axId val="-537308864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1068,7 +1068,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548453648"/>
+        <c:crossAx val="-537310496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -1176,8 +1176,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="548462896"/>
-        <c:axId val="548463440"/>
+        <c:axId val="-537314304"/>
+        <c:axId val="-537314848"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1365,11 +1365,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="548462896"/>
-        <c:axId val="548463440"/>
+        <c:axId val="-537314304"/>
+        <c:axId val="-537314848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="548462896"/>
+        <c:axId val="-537314304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1411,7 +1411,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548463440"/>
+        <c:crossAx val="-537314848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1420,7 +1420,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="548463440"/>
+        <c:axId val="-537314848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="24"/>
@@ -1473,7 +1473,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548462896"/>
+        <c:crossAx val="-537314304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="6"/>
@@ -1581,8 +1581,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="548465616"/>
-        <c:axId val="548454192"/>
+        <c:axId val="-537322464"/>
+        <c:axId val="-537321376"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1770,11 +1770,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="548465616"/>
-        <c:axId val="548454192"/>
+        <c:axId val="-537322464"/>
+        <c:axId val="-537321376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="548465616"/>
+        <c:axId val="-537322464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1816,7 +1816,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548454192"/>
+        <c:crossAx val="-537321376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1825,7 +1825,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="548454192"/>
+        <c:axId val="-537321376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="28"/>
@@ -1878,7 +1878,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548465616"/>
+        <c:crossAx val="-537322464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7"/>
@@ -5162,16 +5162,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -5320,8 +5320,12 @@
       <c r="S3">
         <v>75</v>
       </c>
+      <c r="U3">
+        <f>AVERAGE(P2:P8)+AVERAGE(P12:P19)</f>
+        <v>14.428571428571429</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -5373,8 +5377,12 @@
       <c r="S4">
         <v>100</v>
       </c>
+      <c r="U4">
+        <f>AVERAGE(P9:P11) + AVERAGE(P20:P22)</f>
+        <v>12.333333333333332</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -5426,8 +5434,12 @@
       <c r="S5">
         <v>100</v>
       </c>
+      <c r="V5">
+        <f>U4-U3</f>
+        <v>-2.0952380952380967</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -5480,7 +5492,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -5533,7 +5545,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -5586,7 +5598,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -5648,7 +5660,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -5701,7 +5713,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -5754,7 +5766,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -5816,7 +5828,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -5869,7 +5881,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -5922,7 +5934,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -5975,7 +5987,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>

--- a/p5_sec_outcomes_kyle.xlsx
+++ b/p5_sec_outcomes_kyle.xlsx
@@ -771,8 +771,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="-537310496"/>
-        <c:axId val="-537308864"/>
+        <c:axId val="1315061824"/>
+        <c:axId val="1315062368"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -960,11 +960,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-537310496"/>
-        <c:axId val="-537308864"/>
+        <c:axId val="1315061824"/>
+        <c:axId val="1315062368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-537310496"/>
+        <c:axId val="1315061824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1007,7 +1007,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-537308864"/>
+        <c:crossAx val="1315062368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1016,7 +1016,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-537308864"/>
+        <c:axId val="1315062368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1068,7 +1068,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-537310496"/>
+        <c:crossAx val="1315061824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -1176,8 +1176,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="-537314304"/>
-        <c:axId val="-537314848"/>
+        <c:axId val="1440740880"/>
+        <c:axId val="1440742512"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1365,11 +1365,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-537314304"/>
-        <c:axId val="-537314848"/>
+        <c:axId val="1440740880"/>
+        <c:axId val="1440742512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-537314304"/>
+        <c:axId val="1440740880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1411,7 +1411,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-537314848"/>
+        <c:crossAx val="1440742512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1420,7 +1420,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-537314848"/>
+        <c:axId val="1440742512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="24"/>
@@ -1473,7 +1473,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-537314304"/>
+        <c:crossAx val="1440740880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="6"/>
@@ -1581,8 +1581,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="-537322464"/>
-        <c:axId val="-537321376"/>
+        <c:axId val="1480058400"/>
+        <c:axId val="1480060032"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1770,11 +1770,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-537322464"/>
-        <c:axId val="-537321376"/>
+        <c:axId val="1480058400"/>
+        <c:axId val="1480060032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-537322464"/>
+        <c:axId val="1480058400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1816,7 +1816,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-537321376"/>
+        <c:crossAx val="1480060032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1825,7 +1825,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-537321376"/>
+        <c:axId val="1480060032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="28"/>
@@ -1878,7 +1878,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-537322464"/>
+        <c:crossAx val="1480058400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7"/>
@@ -5164,9 +5164,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U4" sqref="U4"/>
+      <selection pane="topRight" activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5659,6 +5659,10 @@
       <c r="T9">
         <v>100</v>
       </c>
+      <c r="V9">
+        <f>AVERAGE(D2:D8)+AVERAGE(D12:D19)</f>
+        <v>196.42857142857144</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -5712,6 +5716,10 @@
       <c r="S10">
         <v>100</v>
       </c>
+      <c r="V10">
+        <f>AVERAGE(D9:D11) + AVERAGE(D20:D22)</f>
+        <v>200</v>
+      </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -5764,6 +5772,10 @@
       </c>
       <c r="S11">
         <v>100</v>
+      </c>
+      <c r="V11">
+        <f>V10-V9</f>
+        <v>3.5714285714285552</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
